--- a/Segundo Año/Sistemas Operativos/Guías_de_Ejercicios/Planificación/Ejercicio 3b.xlsx
+++ b/Segundo Año/Sistemas Operativos/Guías_de_Ejercicios/Planificación/Ejercicio 3b.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Simbiosis\UTN\Segundo Año\Sistemas Operativos\Guías_de_Ejercicios\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513266E-23D4-4392-9512-6DDB66EC1E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A8168-5C5D-4DBA-81B5-02446753F9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="5610" windowWidth="11805" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicio 3b" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -497,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -540,62 +540,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -605,34 +550,84 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -866,123 +861,123 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="29" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="27" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="27" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29" t="s">
+      <c r="T2" s="45"/>
+      <c r="U2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="30"/>
-      <c r="W2" s="20" t="s">
+      <c r="V2" s="47"/>
+      <c r="W2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="20" t="s">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="21"/>
+      <c r="Z2" s="37"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
       <c r="AF2" s="13"/>
       <c r="AG2" s="14"/>
       <c r="AH2" s="15"/>
     </row>
     <row r="3" spans="1:34" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29">
+      <c r="J3" s="47"/>
+      <c r="K3" s="46">
         <v>2</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="33">
+      <c r="L3" s="47"/>
+      <c r="M3" s="48">
         <v>4</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="33">
+      <c r="N3" s="49"/>
+      <c r="O3" s="48">
         <v>5</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="27" t="s">
+      <c r="P3" s="49"/>
+      <c r="Q3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="28"/>
-      <c r="S3" s="27">
+      <c r="R3" s="45"/>
+      <c r="S3" s="44">
         <v>2</v>
       </c>
-      <c r="T3" s="28"/>
-      <c r="U3" s="29">
+      <c r="T3" s="45"/>
+      <c r="U3" s="46">
         <v>1</v>
       </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="20" t="s">
+      <c r="V3" s="47"/>
+      <c r="W3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="20">
+      <c r="X3" s="37"/>
+      <c r="Y3" s="36">
         <v>2</v>
       </c>
-      <c r="Z3" s="21"/>
+      <c r="Z3" s="37"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="40"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="17"/>
@@ -995,49 +990,49 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29">
+      <c r="J4" s="47"/>
+      <c r="K4" s="46">
         <v>0</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="33">
+      <c r="L4" s="47"/>
+      <c r="M4" s="48">
         <v>4</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="33">
+      <c r="N4" s="49"/>
+      <c r="O4" s="48">
         <v>8</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="27">
+      <c r="P4" s="49"/>
+      <c r="Q4" s="44">
         <v>6</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="27">
+      <c r="R4" s="45"/>
+      <c r="S4" s="44">
         <v>10</v>
       </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29">
+      <c r="T4" s="45"/>
+      <c r="U4" s="46">
         <v>2</v>
       </c>
-      <c r="V4" s="30"/>
-      <c r="W4" s="20">
+      <c r="V4" s="47"/>
+      <c r="W4" s="36">
         <v>8</v>
       </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="20">
+      <c r="X4" s="37"/>
+      <c r="Y4" s="36">
         <v>2</v>
       </c>
-      <c r="Z4" s="21"/>
+      <c r="Z4" s="37"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="12"/>
-      <c r="AC4" s="35" t="s">
+      <c r="AC4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="37"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="40"/>
       <c r="AF4" s="13"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="19"/>
@@ -1050,42 +1045,42 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29">
+      <c r="J5" s="47"/>
+      <c r="K5" s="46">
         <v>3</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="33">
+      <c r="L5" s="47"/>
+      <c r="M5" s="48">
         <v>2</v>
       </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="33">
+      <c r="N5" s="49"/>
+      <c r="O5" s="48">
         <v>3</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="27" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27">
+      <c r="R5" s="45"/>
+      <c r="S5" s="44">
         <v>2</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="45"/>
+      <c r="U5" s="46">
         <v>8</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="W5" s="20" t="s">
+      <c r="V5" s="47"/>
+      <c r="W5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="20">
+      <c r="X5" s="37"/>
+      <c r="Y5" s="36">
         <v>3</v>
       </c>
-      <c r="Z5" s="21"/>
+      <c r="Z5" s="37"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
@@ -1137,21 +1132,21 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="54" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="W7" s="39"/>
+      <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="47" t="s">
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="28" t="s">
         <v>5</v>
       </c>
       <c r="AB7" s="1"/>
@@ -1162,28 +1157,28 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="39"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1194,28 +1189,28 @@
     </row>
     <row r="9" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -1228,32 +1223,31 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="54" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="47" t="s">
+      <c r="O10" s="26"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -1263,28 +1257,28 @@
     </row>
     <row r="11" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1297,32 +1291,32 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="54" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="47" t="s">
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Z12" s="1"/>
@@ -1473,12 +1467,12 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="42"/>
+      <c r="S15" s="23"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -1491,24 +1485,41 @@
       <c r="AC15" s="6"/>
     </row>
     <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="S16" s="43"/>
+      <c r="F16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="43"/>
-      <c r="Q17" s="43"/>
+      <c r="F17" s="24"/>
+      <c r="Q17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="S5:T5"/>
@@ -1525,28 +1536,11 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
